--- a/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
@@ -1566,7 +1566,7 @@
   <sheetPr/>
   <dimension ref="A2:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
